--- a/finetuning/it_datasets/it_dataset/it_el hamma_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_el hamma_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a satisfying meal, check out L'etoile d'or located at VQJ4+RQR L'etoile d'or, P16, El Hamma. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/L%27%C3%A9toile+d%27or/data=!4m7!3m6!1s0x12559b2c49beb217:0xd51541cff836f59f!8m2!3d33.8821073!4d9.7568852!16s%2Fg%2F11nnmzdrb2!19sChIJF7K-SSybVRIRn_U2-M9BFdU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 576 220.</t>
+          <t>L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.</t>
         </is>
       </c>
     </row>
@@ -761,9 +761,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Cafe lounge Babali'Za conveniently located at Rue l'environnement proche station de louage, El Hamma 6020. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.8776496, 9.804123. For more details, visit their website at https://www.facebook.com/Cafe-lounge-BabAliZa-105618911235229/ or call them at 52 600 006.</t>
+          <t>Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.</t>
         </is>
       </c>
     </row>
@@ -866,7 +864,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out 30.8 creperie located at VQQW+3W3 30.8 creperie, Unnamed Road, El Hamma. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 23 597 726.</t>
+          <t>Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.</t>
         </is>
       </c>
     </row>
@@ -961,7 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a cozy spot to relax, look no further than Essiguifa - El Hamma du Djerid. Located at 256H+H8 Essiguifa - El Hamma du Djerid, El Hamma du Jerid, this top-rated cafe is the perfect place to hang out and enjoy a cup of coffee. With a rating of 4.4, it's a must-visit spot for cafe lovers. You can find them at these coordinates: (34.01152, 8.15308).</t>
+          <t>Essiguifa - El Hamma du Djerid is a café in el hamma, Tunisia, located at (34.01152, 8.15308) with a rating of 4.4 based on 7 reviews.</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1054,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you happen to be in el hamma and looking for a great Cafe experience, you should definitely check out Cafe El Garabi located at VXGV+577 Cafe El Garabi, P16, El Hamma. This top-rated destination is perfect for Cafe lovers and has a rating of 4.2. You can visit their website or call them for more information.</t>
+          <t>Café El Garabi is a cafe located in El Hamma, Tunisia. The café is rated 4.2 out of 5 stars on Google and offers a variety of services, including coffee, tea, and snacks. The café is located at coordinates (33.8833694, 9.7947312).</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1153,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Restaurant Aziz located at VQQW+9VV Restaurant Aziz, El Hamma. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: -11.9048446, -77.0349505.</t>
+          <t>Restaurant Aziz is a restaurant that offers a variety of delicious dishes, and is located in el hamma. They are open from 08:00-23:00 and are rated 4.0 out of 5 stars based on 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1252,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated Cafe, check out mntzh msk llyl located at VQHG+XGW mntzh msk llyl, P16. This destination is perfect for Cafe lovers and offers a rating of 4.3. It's open during these hours:, but closed on []. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at or call them at 97 654 474.</t>
+          <t>mntzh msk llyl is a cafe located in El Hamma, Tunisia. It offers a variety of food and drinks, and has a 4.3 rating on Google Maps. The cafe is open 7 days a week, and is located at VQHG+XGW mntzh msk llyl, P16, El Hamma.</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1343,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great Cafe, check out cafe juini located at VJJC+H88 cafe juini, benghilpuf, El Hamma. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+juini/data=!4m7!3m6!1s0x125593bdf1cb8a53:0x4809e368af6d2abc!8m2!3d33.8814019!4d9.6208286!16s%2Fg%2F11h6njpmn3!19sChIJU4rL8b2TVRIRvCptr2jjCUg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The cafe Juini is located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It has a rating of 4.5 out of 5 stars based on 4 reviews on Google Maps. The cafe offers a variety of cafe-style food and beverages.</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1442,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great cafe, check out Cafe Terrasse Elhamma located at VRW5+2GW Cafe Terrasse Elhamma, El Hamma. This top-rated destination is perfect for cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 35.4637138, 7.0834273. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Terrasse+Elhamma/data=!4m7!3m6!1s0x12559b1b1c1f2333:0x6d29d88959669d16!8m2!3d33.8951112!4d9.8088424!16s%2Fg%2F11gk6fvzpq!19sChIJMyMfHBubVRIRFp1mWYnYKW0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Café Terrasse Elhamma is a popular cafe located in El Hamma, Tunisia. The café offers a variety of coffee drinks, as well as other beverages and snacks. It is a popular spot for locals and tourists alike, and is known for its friendly atmosphere and great service. The café is situated in the heart of the city, making it easy to get to from anywhere.</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1545,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out cafe MATADOR located at rue abdelkarim khattabi, El Hamma 6020. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00 but closed on []. To get there, use these GPS coordinates: 33.88630692293, 9.796148284703. For more details, visit their website at  or call them at 24 287 302.</t>
+          <t>Cafe MATADOR is a cafe located in El Hamma, Tunisia, renowned for its exceptional rating of 5.0. Open from 6:00 AM to 10:00 PM daily, it offers a relaxing ambiance and delectable coffee creations. The cafe is situated at the convenient address of rue abdelkarim khattabi and can be easily reached via phone at 24 287 302.</t>
         </is>
       </c>
     </row>
@@ -1638,9 +1636,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out CaffeAZIZ located at RVFH+5QQ CaffeAZIZ, Chanchou, El Hamma. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.81027, 9.87455. For more details, visit their website at https://www.google.com/maps/place/Caff%C3%A9AZIZ/data=!4m7!3m6!1s0x12559f003ef38c55:0xfffac7ef3dac319c!8m2!3d33.8229716!4d9.8794744!16s%2Fg%2F11vytfhrqy!19sChIJVYzzPgCfVRIRnDGsPe_H-v8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at (proprietaire).</t>
+          <t>CaffeAZIZ, located in Chanchou, El Hamma (33.81027, 9.87455), is a cafe that has received a 5-star rating from one reviewer. Unfortunately, there is no further information about its offerings, website, or contact details available.</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1739,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great meal, check out mlyH@ lHm@ MLIHA located at VQPW+9J7 mlyH@ lHm@ MLIHA, El Hamma. This top-rated destination is perfect for Restaurant de volaille lovers and offers a range of Restaurant de volaille to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 20 200 992.</t>
+          <t>mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.</t>
         </is>
       </c>
     </row>
@@ -1842,9 +1838,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great place to stay, check out Residence Le Jasmin located at Route Touristique, Avenue 14 Janvier, Oued El Hammam, Sousse. 
-This top-rated hotel is perfect for those looking for a comfortable stay and offers a range of amenities to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.869776637599, 10.603108765354. For more details, visit their website or call them at 54 481 980.</t>
+          <t>The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.</t>
         </is>
       </c>
     </row>
@@ -1943,9 +1937,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a comfortable place to stay, check out Residence Le Jasmin located at Residence Le Jasmin, Route Touristique, Avenue 14 Janvier, Oued El Hammam. 
-This top-rated hotel is perfect for travelers and offers a range of amenities to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: Not provided, but closed on Not provided. To get there, use these GPS coordinates: 35.869776637599, 10.603108765354. For more details, visit their website at Not provided or call them at 54 481 980.</t>
+          <t>**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.</t>
         </is>
       </c>
     </row>
@@ -2044,9 +2036,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a comfortable place to stay, check out Residence Le Jasmin located at Route Touristique, Avenue 14 Janvier, Oued El Hammam, Sousse. 
-This top-rated hotel is perfect for those seeking a relaxing getaway, and offers a cozy atmosphere and comfortable accommodations. 
-With a rating of 4.1, it's a must-visit spot for travelers seeking a comfortable stay. To get there, use these GPS coordinates: 35.869776637599, 10.603108765354. For more details, visit their website at  or call them at 54 481 980.</t>
+          <t>Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2139,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a place to stay, check out Castilia Suites located at W4MQ+GWX Castilia Suites, route, El Hamma 2200. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: -33.9172962, 151.0358513. For more details, visit their website at http://www.castilia-suites-tozeur.vivehotels.com/ or call them at 76 463 777.</t>
+          <t>Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2230,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Looking for a perfect vacation rental in el hamma? Check out Hammam jabeur at VRF2+JH5 Hammam jabeur, Unnamed Road. This top-rated destination is perfect for Location d'appartement de vacances lovers. With a rating of 5.0, it's a must-visit spot! For more details, visit their link at https://www.google.com/maps/place/Hammam+jabeur/data=!4m7!3m6!1s0x12559b60e2c2b18f:0xb572cf6646e1a334!8m2!3d33.8740137!4d9.8014938!16s%2Fg%2F11rtn4bqq1!19sChIJj7HC4mCbVRIRNKPhRmbPcrU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2333,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Hammam Chanchou located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma. This top-rated destination is perfect for Hammam lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-20:30. To get there, use these GPS coordinates: 33.81027, 9.87455. For more details, visit their website at https://www.google.com/maps/place/Hammam+Chanchou/data=!4m7!3m6!1s0x12559d0b8c135bfd:0x5be18c60603330bc!8m2!3d33.8950089!4d9.8752841!16s%2Fg%2F11bzwp2xl9!19sChIJ_VsTjAudVRIRvDAzYGCM4Vs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 549 738.</t>
+          <t>Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2424,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in El Hamma and looking for a relaxing experience, visit Hammem Sidi Abdelkader located at VQMV+RHW Hammem Sidi Abdelkader, El Hamma. This top-rated destination is perfect for hammam lovers and offers a range of hammam treatments to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.8223164, 10.0628018. For more details, visit their website at https://www.google.com/maps/place/Hammem+Sidi+Abdelkader/data=!4m7!3m6!1s0x12559b755e32efeb:0xca20b8ab7d887da8!8m2!3d33.8846235!4d9.7939394!16s%2Fg%2F11lh334d5n!19sChIJ6-8yXnWbVRIRqH2Ifau4IMo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -2537,9 +2527,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in El Hamma and looking for a Hammam, check out Hammam Chanchou located at VVWG+243 Hammam Chanchou, Chanchou. 
-This top-rated destination is perfect for Hammam lovers and offers a range of Hammam experiences to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-20:30, but closed on Fridays. To get there, use these GPS coordinates: 33.81027, 9.87455. For more details, visit their website at https://www.google.com/maps/place/Hammam+Chanchou/data=!4m7!3m6!1s0x12559d0b8c135bfd:0x5be18c60603330bc!8m2!3d33.8950089!4d9.8752841!16s%2Fg%2F11bzwp2xl9!19sChIJ_VsTjAudVRIRvDAzYGCM4Vs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 549 738.</t>
+          <t>Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.</t>
         </is>
       </c>
     </row>
@@ -2630,9 +2618,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a relaxing and rejuvenating experience, check out Hammem Sidi Abdelkader located at VQMV+RHW Hammem Sidi Abdelkader, El Hamma. 
-This top-rated destination is perfect for Hammam lovers and offers a range of Hammam services to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.8223164, 10.0628018. For more details, visit their website at https://www.google.com/maps/place/Hammem+Sidi+Abdelkader/data=!4m7!3m6!1s0x12559b755e32efeb:0xca20b8ab7d887da8!8m2!3d33.8846235!4d9.7939394!16s%2Fg%2F11lh334d5n!19sChIJ6-8yXnWbVRIRqH2Ifau4IMo?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Hammem Sidi Abdelkader is a famous Hammam located in el hamma. It is renowned for its relaxing and rejuvenating treatments. Visitors can enjoy a variety of services, including massages, body scrubs, and steam baths. The hammam is also known for its beautiful architecture and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2721,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a relaxing and rejuvenating experience, check out Hammam Chanchou located at VVWG+243 Hammam Chanchou, Chanchou. This top-rated destination is perfect for Hammam lovers and offers a range of treatments to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-20:30, but closed on . To get there, use these GPS coordinates: 33.81027, 9.87455. For more details, visit their website at  or call them at 98 549 738.</t>
+          <t>Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2812,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a Hammam, check out Hammem Sidi Abdelkader. This top-rated destination is perfect for Hammam lovers and offers a range of Hammam to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.8223164, 10.0628018.</t>
+          <t>Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2903,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for top-rated Drinking water destinations, Bi'r Shanshu located at Bi'r Shanshu, El Hamma is a must-visit spot. With a rating of 4.0, it offers a great experience for Drinking water lovers. For more details, visit their website at https://www.google.com/maps/place/Bi%27r+Shanshu/data=!4m7!3m6!1s0x12559d62c213d22f:0x5bf53b7e2c3d8c9!8m2!3d33.9!4d9.9!16s%2Fg%2F1vnn3fxp!19sChIJL9ITwmKdVRIRydjD4rdTvwU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3002,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great Cafe, check out Lavazza located at VRQ2+X7P Lavazza, P16, El Hamma. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Lavazza/data=!4m7!3m6!1s0x12559b9b579938a1:0xcfa5c8e602bdeb00!8m2!3d33.8899745!4d9.8006909!16s%2Fg%2F1pp2twzpr!19sChIJoTiZV5ubVRIRAOu9AubIpc8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [NAN].</t>
+          <t>Lavazza is a well-rated cafe located in El Hamma, Tunisia, offering a warm and inviting atmosphere. Situated at coordinates (33.8833694, 9.7947312), the cafe is open from 5 AM to midnight every day, making it a convenient spot for early morning coffee or a late-night treat.</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3105,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated restaurant, check out L'etoile d'or located at VQJ4+RQR L'etoile d'or, P16. This 4.2-star rated destination is perfect for Restaurant lovers. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website or call them at 25 576 220.</t>
+          <t>Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.</t>
         </is>
       </c>
     </row>
@@ -3222,9 +3208,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a place to relax, check out Cafe Al Barzakh - lbrzkh located at VQRX+6R3, El Hamma. 
-This top-rated destination is perfect for Salon de the lovers and offers a cozy ambience to enjoy your favorite beverages. 
-With a rating of 4.1, it's a must-visit spot especially if you want to take a break from the hustle and bustle of the city. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details or to make a reservation, visit their Facebook page at https://www.facebook.com/%25D8%25A7%25D9%2584%25D8%25A8%25D8%25B1%25D8%25B2%25D8%25AE-Al-Barzakh-1448489455406597/ or call them at 75 333 526.</t>
+          <t>Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).</t>
         </is>
       </c>
     </row>
@@ -3331,10 +3315,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great place to relax and enjoy a cup of tea, check out Cafe lounge Babali'Za located at Rue l'environnement proche station de louage, El Hamma 6020. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. 
-To get there, use these GPS coordinates: 33.8776496, 9.804123. For more details, visit their website at https://www.facebook.com/Cafe-lounge-BabAliZa-105618911235229/ or call them at 52 600 006.</t>
+          <t>Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3418,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in El Hamma and looking for a delicious Creperie, check out 30.8 creperie located at Unnamed Road. This top-rated destination is perfect for Creperie lovers and offers a delicious range of Creperie options to choose from. With a rating of 4.6 out of 5, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/30.8+cr%C3%AAperie/data=!4m7!3m6!1s0x12559bfde4743b71:0x38b2e49c71140842!8m2!3d33.8876302!4d9.7973025!16s%2Fg%2F11rm1r56xl!19sChIJcTt05P2bVRIRQggUcZzksjg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 597 726.</t>
+          <t>30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.</t>
         </is>
       </c>
     </row>
@@ -3528,9 +3509,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Cafe Al Quds located at VRR3+GCF Cafe Al Quds, El Hamma. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Al+Quds/data=!4m7!3m6!1s0x12559b830bdc56ab:0x1f669be4f3cabbdb!8m2!3d33.8913232!4d9.8035444!16s%2Fg%2F11fy2q2rgk!19sChIJq1bcC4ObVRIR27vK8-SbZh8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Al Quds is a cafe located in the heart of El Hamma, known for its cozy ambiance and delicious coffee. With a rating of 4.0 based on 7 reviews, it's a popular spot among locals and tourists alike. Its exact location is at (33.8913232, 9.8035444).</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3608,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out La Belle Etoile located at VRV5+V49 La Belle Etoile, El Hamma. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-23:30, but closed on []. To get there, use these GPS coordinates: 49.554803025492, 0.170204844663. For more details, visit their website at https://www.google.com/maps/place/La+Belle+%C3%89toile/data=!4m7!3m6!1s0x12559bf63d5719ad:0x6efeb248cbcc2169!8m2!3d33.894654!4d9.8078704!16s%2Fg%2F11j83sqdts!19sChIJrRlXPfabVRIRaSHMy0iy_m4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Belle Etoile, a highly-rated cafe located at VRV5+V49 La Belle Etoile, El Hamma, Tunisia. The cafe is known for its warm and inviting atmosphere, offering a range of coffee, tea, and pastries. Situated at coordinates (49.554803025492, 0.170204844663), it's conveniently located for locals and visitors seeking a cozy spot to relax and socialize.</t>
         </is>
       </c>
     </row>
@@ -3728,10 +3707,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a highly-rated restaurant, check out Restaurant Aziz located at VQQW+9VV. 
-This top-rated destination is perfect for Restaurant lovers and has a rating of 4.0. 
-It's open during these hours: 08:00-23:00, but closed on . To get there, use these GPS coordinates: -11.9048446, -77.0349505. 
-For more details, visit their website at or call them at .</t>
+          <t>Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3810,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great Cafe, check out cafe Berlin located at VQJG+4V7 cafe Berlin, P16. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:45-00:45. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+Berlin/data=!4m7!3m6!1s0x12559be12b11ed77:0x7e89e49cf2331d4a!8m2!3d33.8802905!4d9.7771615!16s%2Fg%2F11h5_w37ky!19sChIJd-0RK-GbVRIRSh0z8pzkiX4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 704 359.</t>
+          <t>Café Berlin is a popular cafe located in El Hamma, Tunisia. The cafe is known for its friendly atmosphere, delicious food, and strong coffee. Café Berlin is a great place to relax and enjoy a meal or a drink with friends. The cafe is located at VQJG+4V7, and it is open from 6:45 AM to 12:45 AM, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3917,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great cafe, check out Costa located at VRR3+WW2 Costa, El Hamma. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:30-00:30. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Costa/data=!4m7!3m6!1s0x12559b8355aa0925:0x230ff8d31014ec1e!8m2!3d33.8922561!4d9.8047502!16s%2Fg%2F11g9nl19t4!19sChIJJQmqVYObVRIRHuwUENP4DyM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 762 499.</t>
+          <t>Costa, located at VRR3+WW2 in El Hamma, is a cafe that offers a wide range of hot beverages, refreshments, pastries, and sandwiches at its counter. It boasts a 4.4-star rating and is open daily from 6:30 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -4032,8 +4008,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for top-rated Bar, check out Hammam sidi swiid located at VQHW+378 Hammam sidi swiid, Unnamed Road, El Hamma. 
-With a rating of 4.8 and 5 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312.</t>
+          <t>Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.</t>
         </is>
       </c>
     </row>
@@ -4132,8 +4107,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated Cafe , check out Cafe Terrasse Elhamma located at VRW5+2GW Cafe Terrasse Elhamma, El Hamma. 
-This destination is perfect for Cafe lovers and has a rating of 4.5. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 35.4637138, 7.0834273. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Terrasse+Elhamma/data=!4m</t>
+          <t>Cafe Terrasse Elhamma is a popular cafe located in El Hamma, Tunisia. It has a rating of 4.5 stars on Google Reviews, with users praising its friendly staff and delicious food. The cafe offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. It is located at (35.4637138, 7.0834273) and is open from 7:00 AM to 11:30 PM daily.</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4202,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Creperie Nejma located at VQMV+3R5 Creperie Nejma, El Hamma. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Cr%C3%AAperie+Nejma/data=!4m7!3m6!1s0x12559bb7e3ed5dff:0x4bab8774693ebd7a!8m2!3d33.8826479!4d9.7946197!16s%2Fg%2F11mq3ddhf5!19sChIJ_13t47ebVRIRer0-aXSHq0s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the phone number provided.</t>
+          <t>Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4301,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Cafe El Bort - mqh~ lbrT located at VQMV+3QP Cafe El Bort - mqh~ lbrT, El Hamma. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:30-22:00. 
-To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+El+Bort+-+%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A8%D8%B1%D8%B7%E2%80%AD/data=!4m7!3m6!1s0x12559b16abddb9cb:0x739a4d125d57f7ed!8m2!3d33.8827068!4d9.7944379!16s%2Fg%2F11gkxbh0sh!19sChIJy7ndqxabVRIR7fdXXRJNmnM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>Cafe El Bort is a highly-rated cafe located at VQMV+3QP, El Hamma (33.8833694, 9.7947312). Its popular menu, cozy atmosphere, and convenient location make it a popular destination for locals and tourists alike. With a rating of 4.5 out of 5 stars based on 4 reviews, this cafe is a great place to enjoy a cup of coffee, relax, and socialize.</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4400,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great cafe to relax in, check out mntzh msk llyl located at VQHG+XGW mntzh msk llyl, P16. With a rating of 4.3, it's a must-visit spot for cafe lovers. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 97 654 474.</t>
+          <t>mntzh msk llyl is a cafe located in El Hamma, Tunisia. It has a rating of 4.3 out of 5 stars on Google Maps, and is open daily. The cafe offers a variety of food and drinks, and is a popular spot for locals and tourists alike. It's located at the coordinates (33.8833694, 9.7947312).</t>
         </is>
       </c>
     </row>
@@ -4524,7 +4495,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Cafe Bella vita located at VQMV+7QX Cafe Bella vita, P16, El Hamma. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 18.304732999906, -66.477308015561.</t>
+          <t>Cafe Bella vita is located in VQMV+7QX, El Hamma, with the coordinates (18.304732999906, -66.477308015561). This cafe offers a great dining experience with a rating of 5.0 based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -4623,9 +4594,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out cafe Douar mqh~ ldwr located at VQPV+9RP cafe Douar mqh~ ldwr, El Hamma. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 33.8833694, 9.7947312.</t>
+          <t>Cafe Douar mqh~ ldwr is a cafe located in El Hamma, Tunisia, with a rating of 4.0 based on 3 reviews. It is open from 5 AM to midnight every day and offers a variety of cafe beverages and snacks.</t>
         </is>
       </c>
     </row>
@@ -4728,9 +4697,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out EL MONDO located at VRR3+765. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.facebook.com/El-mondo-Salon-de-Th%25C3%25A9-104726167953336</t>
+          <t>EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4800,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated Cafe destination, check out Cafe Wided located at Cafe Wided, P16, El Hamma. This must-visit spot offers a range of Cafe categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:30-21:00. To get there, use these GPS coordinates: 33.8870598, 9.7957057. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Wided/data=!4m7!3m6!1s0x12559b9a28307df5:0xfb682dd396a87e38!8m2!3d33.8871297!4d9.7956968!16s%2Fg%2F1pp2vbqx1!19sChIJ9X0wKJqbVRIROH6oltMtaPs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 262 721.</t>
+          <t>Cafe Wided is a popular cafe located in El Hamma, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as a selection of snacks and pastries. The cafe is situated in a convenient location, just off the main road, and is easily accessible by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4895,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great cafe experience, check out Cafe zurich located at VQHR+XG6 Cafe zurich, El Hamma. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Cafe+zurich/data=!4m7!3m6!1s0x12559b44ed782d63:0x9241607b4aecb3f1!8m2!3d33.8799147!4d9.7912635!16s%2Fg%2F11g2xdx4gn!19sChIJYy147USbVRIR8bPsSntgQZI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe zurich is a Cafe located in el hamma city, Tunisia. It has a rating of 4.3 stars out of 3 reviews. The main category of this place is Cafe.</t>
         </is>
       </c>
     </row>
@@ -5027,8 +4994,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated restaurant, check out mT`m lGmrsny ghomrasni located at VQPW+935 mT`m lGmrsny ghomrasni, P16, El Hamma. This 5.0-rated destination is open during these hours: nan, but closed on []. 
-To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 20 772 690.</t>
+          <t>mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5097,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a fantastic Restaurant de volaille, check out mlyH@ lHm@ MLIHA located at VQPW+9J7 mlyH@ lHm@ MLIHA, El Hamma. This top-rated destination is perfect for Restaurant de volaille lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24h/24, but closed on . To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website or call them at 20 200 992.</t>
+          <t>mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.</t>
         </is>
       </c>
     </row>
@@ -5226,9 +5192,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Restaurant Chichkhan located at VQPW+H57 Restaurant Chichkhan, louage tunis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website  or call them at .</t>
+          <t>Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5287,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a delicious bite to eat, head on over to Chez Bilel located at VQHP+R42 Chez Bilel, P16. This top-rated destination is perfect for fast food lovers and offers a variety of options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Chez+Bilel/data=!4m7!3m6!1s0x12559b3ea856cd1d:0xecb6d8cc91de596f!8m2!3d33.8795056!4d9.7852674!16s%2Fg%2F11jp4z38xm!19sChIJHc1WqD6bVRIRb1nekczYtuw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5386,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated Cafe, check out Cafe al Jomhouria located at VQPW+66Q, El Hamma. With a rating of 5.0, it's a must-visit spot for Cafe lovers. It's open during these hours: 06:30-22:30. To get there, use these GPS coordinates: 36.87746, 10.3266767. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+al+Jomhouria/data=!4m7!3m6!1s0x12559b6f0377f7ad:0xfe339fde032c3083!8m2!3d33.8855839!4d9.7956248!16s%2Fg%2F11f8cl27m5!19sChIJrfd3A2-bVRIRgzAsA96fM_4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe al Jomhouria is a cafe located in El Hamma, Tunisia. It is rated 5.0 out of 5 stars on Google, and offers a variety of food and drinks. The cafe is open from 6:30 AM to 10:30 PM every day, and is located at the coordinates (36.87746, 10.3266767).</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5481,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for somewhere great to eat, check out Al Naseem - lnsym located at VQMV+5JG . This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-21:30. To get there, use these GPS coordinates: 33.8833694, 9.7947312.</t>
+          <t>Al Naseem is a 4-star rated cafe situated in El Hamma, Tunisia. It is open every day from 5:30 AM to 9:30 PM and is known for its great coffee and service.</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5588,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in el hamma seeking a great cafe, look no further than Balsam Palace, situated at VQMX+X6M Balsam Palace. This highly rated destination provides a variety of options for cafe enthusiasts. With a 5.0 rating, it's a must-visit spot. Their hours of operation are 06:00-00:00, and they are closed on unspecified days. For more information, visit their website at http://www.instagram.com/balsam.palace or call them at 97 647 005.</t>
+          <t>Balsam Palace is a 5-star cafe located in El Hamma, Tunisia. The cafe is open from 6:00 AM to 00:00 AM every day and offers a variety of services, including free WiFi, breakfast, and lunch. The cafe is also conveniently located near several attractions, including the Medina of El Hamma and the Great Mosque of El Hamma.</t>
         </is>
       </c>
     </row>
@@ -5715,9 +5679,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Cafe royal located at VQJF+7HP Cafe royal, P16, El Hamma. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at  https://www.google.com/maps/place/Caf%C3%A9+royal/data=!4m7!3m6!1s0x12559b945a4063f9:0x8235a7e0e45caad7!8m2!3d33.880723!4d9.7739471!16s%2Fg%2F11nykzglnh!19sChIJ-WNAWpSbVRIR16pc5OCnNYI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe royal is a cafe located in el hamma. It is rated 5.0 by one reviewer and is categorized as a cafe. Its exact location is VQJF+7HP Cafe royal, P16, El Hamma with coordinates (33.8833694, 9.7947312).</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5774,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great cafe, check out Cafe Teatro located at VQMW+RGP. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312.</t>
+          <t>Cafe Teatro is a 5-star rated cafe located in El Hamma, Tunisia. It offers a cozy and inviting atmosphere with a warm and friendly staff. The cafe serves a variety of drinks, including coffee, tea, and juices, as well as a selection of snacks and pastries. Cafe Teatro is a great place to relax and enjoy a drink with friends or family. It is conveniently located near the city center, making it easy to visit after a day of exploring the city.</t>
         </is>
       </c>
     </row>
@@ -5919,9 +5881,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a reliable Station-service, check out Station Service TotalEnergies EL HAMMA located at VQHP+QJ7 Station Service TotalEnergies EL HAMMA, P16 El Guitna - route Kebilli, P16, El Hamma 6020. 
-This top-rated destination is perfect for Station-service and offers a range of Station-service to choose from. 
-With a rating of 3.5, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 33.8776496, 9.804123. For more details, visit their website at https://services.totalenergies.tn/ or call them at 75 331 905.</t>
+          <t>Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.</t>
         </is>
       </c>
     </row>
@@ -6020,9 +5980,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a relaxing getaway, check out STATION THERMALE CHAIBI. lmHT@ lstshfy'y@ lshyby located at VVVG+R6R STATION THERMALE CHAIBI. lmHT@ lstshfy'y@ lshyby, CHENCHOU, El Hamma. 
-This top-rated destination is perfect for Complexen hotelier lovers and offers a range of Institut de massages to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 98 549 738.</t>
+          <t>STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6079,9 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a reliable Station-service, Agil El Hamma is the perfect choice. Located at VRW6+FCR Agil El Hamma, P16, El Hamma, this top-rated spot has a rating of 5.0 and is open 24 hours a day. Its coordinates are (35.4637138, 7.0834273). Agil El Hamma offers a range of categories including Station-service. For more details, visit their website at https://www.google.com/maps/place/Agil+El+Hamma/data=!4m7!3m6!1s0x12559b7fbfea7c8d:0xd8dffa9704b24571!8m2!3d33.8962386!4d9.8110136!16s%2Fg%2F11b6_nfw9v!19sChIJjXzqv3-bVRIRcUWyBJf639g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.</t>
         </is>
       </c>
     </row>
@@ -6216,9 +6176,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out station des louages located at station des louages, P16, El Hamma. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8894028, 9.8000244. For more details, visit their link at https://www.google.com/maps/place/station+des+louages/data=!4m7!3m6!1s0x12559b9b448c50b9:0xcbcb3d2f66e4241a!8m2!3d33.8893324!4d9.8003762!16s%2Fg%2F12xq2074j!19sChIJuVCMRJubVRIRGiTkZi89y8s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -6313,9 +6271,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated Station-service, check out Ala service auto located at VQQW+H63 Ala service auto, Unnamed Road, El Hamma. 
-This destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 24 944 467.</t>
+          <t>Ala service auto is a gas station located in Ala service auto, Unnamed Road, El Hamma, Tunisia. It offers a variety of services to motorists, including fuel, repairs, and maintenance. Ala service auto is conveniently located near major highways and roads, making it easy for customers to access. The gas station is open 24 hours a day, 7 days a week, and offers competitive prices on fuel. Ala service auto also has a team of experienced and certified mechanics who can handle a wide range of repairs and maintenance services.</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6372,11 @@
           <t>el hamma</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6509,7 +6469,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a gas station, check out Kiosque hsan located at VQJR+2GF Kiosque hsan, P16, El Hamma. This top-rated gas station is perfect for gas station lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.8833694, 9.7947312.</t>
+          <t>Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.</t>
         </is>
       </c>
     </row>
@@ -6608,9 +6568,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a reliable transport company, check out mHT@ llwj located at VQQX+PXX mHT@ llwj, El Hamma. 
-This top-rated destination offers a range of transport services. 
-With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%84%D9%88%D8%A7%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x12559b657bf8ff5b:0x705b53c124b3f73e!8m2!3d33.8893655!4d9.7999891!16s%2Fg%2F11jyz2rpyx!19sChIJW__4e2WbVRIRPvezJMFTW3A?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6663,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a Gare routiere, check out station des louages Located at station des louages, P16, El Hamma. This popular destination has received a rating of 4.3, making it a must-visit spot for Gare routiere enthusiasts. You can get more information on their website at https://www.google.com/maps/place/station+des+louages/data=!4m7!3m6!1s0x12559b9b448c50b9:0xcbcb3d2f66e4241a!8m2!3d33.8893324!4d9.8003762!16s%2Fg%2F12xq2074j!19sChIJuVCMRJubVRIRGiTkZi89y8s?authuser=0&amp;hl=fr&amp;rclk=1 or contact them directly. To get there, use these GPS coordinates: (33.8894028, 9.8000244).</t>
+          <t>The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6762,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a reliable transportation company, check out mHT@ llwj located at VQQX+PXX mHT@ llwj, El Hamma. This top-rated destination is perfect for those seeking transportation services and offers a range of options to choose from. With a GPS coordinates of (33.8833694, 9.7947312) and a rating of 4.0, it's a must-visit spot for all your transportation needs. It's open 24 hours a day and closed on weekdays. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%84%D9%88%D8%A7%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x12559b657bf8ff5b:0x705b53c124b3f73e!8m2!3d33.8893655!4d9.7999891!16s%2Fg%2F11jyz2rpyx!19sChIJW__4e2WbVRIRPvezJMFTW3A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at (if available).</t>
+          <t>This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.</t>
         </is>
       </c>
     </row>
